--- a/excel_file_modify_data_new.xlsx
+++ b/excel_file_modify_data_new.xlsx
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>400</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>600</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>700</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -521,7 +521,7 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <v>800</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -532,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="D10">
-        <v>900</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
